--- a/Repository/Databases/Northwind employee objectives.xlsx
+++ b/Repository/Databases/Northwind employee objectives.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C8984-7FB3-4B5F-8904-A65309D96831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E03D486-545F-44A8-8B04-62B7ABD0D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="View" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_Employee_Objective" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">View!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sample_Employee_Objective!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -108,11 +108,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="cell_title" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
